--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 3/W3_V4 NamedRangesInFormulas.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 3/W3_V4 NamedRangesInFormulas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964C416C-EC0D-434A-B8BD-6B886A6E4D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
     <definedName name="Pension_Rate">Staff!$P$1</definedName>
     <definedName name="Years_Service">Staff!$G$4:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,7 +563,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1057,35 +1058,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.15234375" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.23046875" customWidth="1"/>
-    <col min="8" max="8" width="17.69140625" customWidth="1"/>
-    <col min="9" max="9" width="16.07421875" customWidth="1"/>
-    <col min="10" max="10" width="10.4609375" customWidth="1"/>
-    <col min="11" max="11" width="12.765625" customWidth="1"/>
-    <col min="12" max="13" width="14.15234375" customWidth="1"/>
-    <col min="14" max="14" width="12.4609375" customWidth="1"/>
-    <col min="15" max="15" width="11.07421875" customWidth="1"/>
-    <col min="16" max="16" width="11.3046875" customWidth="1"/>
-    <col min="18" max="18" width="22.69140625" customWidth="1"/>
-    <col min="19" max="19" width="17.53515625" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>117</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1151,7 @@
       </c>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1173,7 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G38" ca="1" si="1">YEARFRAC(F4,TODAY())</f>
-        <v>16.408333333333335</v>
+        <v>19.68611111111111</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
@@ -1208,7 +1209,7 @@
       </c>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1231,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>16.336111111111112</v>
+        <v>19.613888888888887</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>80</v>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1289,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.797222222222222</v>
+        <v>18.074999999999999</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
@@ -1324,7 +1325,7 @@
       </c>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1346,7 +1347,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.183333333333334</v>
+        <v>16.461111111111112</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
@@ -1382,7 +1383,7 @@
       </c>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -1404,7 +1405,7 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.952777777777778</v>
+        <v>15.230555555555556</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>72</v>
@@ -1436,7 +1437,7 @@
       </c>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1458,7 +1459,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.419444444444444</v>
+        <v>14.697222222222223</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -1490,7 +1491,7 @@
       </c>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1512,7 +1513,7 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.266666666666667</v>
+        <v>14.544444444444444</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
@@ -1544,7 +1545,7 @@
       </c>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10.655555555555555</v>
+        <v>13.933333333333334</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1598,7 +1599,7 @@
       </c>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1620,7 +1621,7 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2083333333333339</v>
+        <v>12.486111111111111</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>72</v>
@@ -1652,7 +1653,7 @@
       </c>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -1674,7 +1675,7 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8388888888888886</v>
+        <v>12.116666666666667</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1706,7 +1707,7 @@
       </c>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -1728,7 +1729,7 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.541666666666667</v>
+        <v>10.819444444444445</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>72</v>
@@ -1760,7 +1761,7 @@
       </c>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
@@ -1782,7 +1783,7 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3805555555555555</v>
+        <v>10.658333333333333</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>80</v>
@@ -1814,7 +1815,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3527777777777779</v>
+        <v>9.6305555555555564</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
@@ -1868,7 +1869,7 @@
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
@@ -1890,7 +1891,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0250000000000004</v>
+        <v>9.3027777777777771</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>72</v>
@@ -1922,7 +1923,7 @@
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
@@ -1944,7 +1945,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2555555555555555</v>
+        <v>8.5333333333333332</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
@@ -1976,7 +1977,7 @@
       </c>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
@@ -1998,7 +1999,7 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7638888888888893</v>
+        <v>8.0416666666666661</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -2030,7 +2031,7 @@
       </c>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
@@ -2052,7 +2053,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.666666666666667</v>
+        <v>7.9444444444444446</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>80</v>
@@ -2084,7 +2085,7 @@
       </c>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>99</v>
       </c>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1416666666666666</v>
+        <v>7.4194444444444443</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
@@ -2138,7 +2139,7 @@
       </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>100</v>
       </c>
@@ -2160,7 +2161,7 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0833333333333335</v>
+        <v>6.3611111111111107</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -2192,7 +2193,7 @@
       </c>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -2214,7 +2215,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7972222222222221</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -2246,7 +2247,7 @@
       </c>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
@@ -2268,7 +2269,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7694444444444444</v>
+        <v>6.0472222222222225</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>72</v>
@@ -2300,7 +2301,7 @@
       </c>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>103</v>
       </c>
@@ -2322,7 +2323,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.625</v>
+        <v>5.9027777777777777</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>72</v>
@@ -2354,7 +2355,7 @@
       </c>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>104</v>
       </c>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5333333333333332</v>
+        <v>5.8111111111111109</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2408,7 +2409,7 @@
       </c>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
@@ -2430,7 +2431,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4972222222222222</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>72</v>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -2484,7 +2485,7 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1722222222222221</v>
+        <v>5.45</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>72</v>
@@ -2516,7 +2517,7 @@
       </c>
       <c r="P28" s="13"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2538,7 +2539,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8777777777777778</v>
+        <v>5.1555555555555559</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -2570,7 +2571,7 @@
       </c>
       <c r="P29" s="13"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -2592,7 +2593,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.875</v>
+        <v>5.1527777777777777</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>22</v>
@@ -2624,7 +2625,7 @@
       </c>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.625</v>
+        <v>4.9027777777777777</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>72</v>
@@ -2678,7 +2679,7 @@
       </c>
       <c r="P31" s="13"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -2700,7 +2701,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6166666666666667</v>
+        <v>4.8944444444444448</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>72</v>
@@ -2732,7 +2733,7 @@
       </c>
       <c r="P32" s="13"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -2754,7 +2755,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4888888888888889</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>80</v>
@@ -2786,7 +2787,7 @@
       </c>
       <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -2808,7 +2809,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4527777777777777</v>
+        <v>4.7305555555555552</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>72</v>
@@ -2840,7 +2841,7 @@
       </c>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -2862,7 +2863,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61388888888888893</v>
+        <v>3.8916666666666666</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>22</v>
@@ -2894,7 +2895,7 @@
       </c>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53055555555555556</v>
+        <v>3.8083333333333331</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>72</v>
@@ -2948,7 +2949,7 @@
       </c>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -2970,7 +2971,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4666666666666668</v>
+        <v>10.744444444444444</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>33</v>
@@ -3002,7 +3003,7 @@
       </c>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
@@ -3024,7 +3025,7 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10833333333333334</v>
+        <v>3.3861111111111111</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>35</v>
@@ -3057,7 +3058,7 @@
       <c r="P38" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:N38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N38">
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="1">
@@ -3069,32 +3070,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.69140625" customWidth="1"/>
-    <col min="2" max="2" width="17.84375" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 3/W3_V4 NamedRangesInFormulas.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 3/W3_V4 NamedRangesInFormulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964C416C-EC0D-434A-B8BD-6B886A6E4D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B40469-0C9D-4C41-9464-954F67BB16CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,7 @@
     <definedName name="Last_Review">Staff!$L$4:$L$38</definedName>
     <definedName name="Location">Staff!$I$4:$I$38</definedName>
     <definedName name="Next_Review">Staff!$M$4:$M$38</definedName>
+    <definedName name="package">Staff!$P$4:$P$38</definedName>
     <definedName name="Pension">Staff!$O$4:$O$38</definedName>
     <definedName name="Pension_Rate">Staff!$P$1</definedName>
     <definedName name="Years_Service">Staff!$G$4:$G$38</definedName>
@@ -1061,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,11 +1204,17 @@
         <f t="shared" ref="O4:O38" si="5">N4*Pension_Rate</f>
         <v>9126</v>
       </c>
-      <c r="P4" s="13"/>
+      <c r="P4" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>110526</v>
+      </c>
       <c r="R4" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="S4" s="17"/>
+      <c r="S4" s="17">
+        <f>SUM(package)</f>
+        <v>2134656</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1261,11 +1268,17 @@
         <f t="shared" si="5"/>
         <v>6327</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>76627</v>
+      </c>
       <c r="R5" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="S5" s="17"/>
+      <c r="S5" s="17">
+        <f xml:space="preserve"> AVERAGE(Annual_Salary)</f>
+        <v>55954.285714285717</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1319,11 +1332,17 @@
         <f t="shared" si="5"/>
         <v>6192</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>74992</v>
+      </c>
       <c r="R6" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="16">
+        <f>MIN(Next_Review)</f>
+        <v>42872</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1377,11 +1396,17 @@
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>64528</v>
+      </c>
       <c r="R7" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="S7" s="16"/>
+      <c r="S7" s="16">
+        <f xml:space="preserve"> MAX(Date_of_Hire)</f>
+        <v>42874</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1435,7 +1460,10 @@
         <f t="shared" si="5"/>
         <v>5661</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>68561</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1489,7 +1517,10 @@
         <f t="shared" si="5"/>
         <v>5256</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>63656</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1543,7 +1574,10 @@
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>64528</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1597,7 +1631,10 @@
         <f t="shared" si="5"/>
         <v>4644</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>56244</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1651,7 +1688,10 @@
         <f t="shared" si="5"/>
         <v>5238</v>
       </c>
-      <c r="P12" s="13"/>
+      <c r="P12" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>63438</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1705,7 +1745,10 @@
         <f t="shared" si="5"/>
         <v>5022</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>60822</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1759,7 +1802,10 @@
         <f t="shared" si="5"/>
         <v>4995</v>
       </c>
-      <c r="P14" s="13"/>
+      <c r="P14" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>60495</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1813,7 +1859,10 @@
         <f t="shared" si="5"/>
         <v>4356</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>52756</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1867,7 +1916,10 @@
         <f t="shared" si="5"/>
         <v>5337</v>
       </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>64637</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1921,7 +1973,10 @@
         <f t="shared" si="5"/>
         <v>5040</v>
       </c>
-      <c r="P17" s="13"/>
+      <c r="P17" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>61040</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1975,7 +2030,10 @@
         <f t="shared" si="5"/>
         <v>5688</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>68888</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -2029,7 +2087,10 @@
         <f t="shared" si="5"/>
         <v>4653</v>
       </c>
-      <c r="P19" s="13"/>
+      <c r="P19" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>56353</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -2083,7 +2144,10 @@
         <f t="shared" si="5"/>
         <v>4464</v>
       </c>
-      <c r="P20" s="13"/>
+      <c r="P20" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>54064</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -2137,7 +2201,10 @@
         <f t="shared" si="5"/>
         <v>4059</v>
       </c>
-      <c r="P21" s="13"/>
+      <c r="P21" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>49159</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -2191,7 +2258,10 @@
         <f t="shared" si="5"/>
         <v>3789</v>
       </c>
-      <c r="P22" s="13"/>
+      <c r="P22" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>45889</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -2245,7 +2315,10 @@
         <f t="shared" si="5"/>
         <v>5652</v>
       </c>
-      <c r="P23" s="13"/>
+      <c r="P23" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>68452</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -2299,7 +2372,10 @@
         <f t="shared" si="5"/>
         <v>4923</v>
       </c>
-      <c r="P24" s="13"/>
+      <c r="P24" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>59623</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -2353,7 +2429,10 @@
         <f t="shared" si="5"/>
         <v>4734</v>
       </c>
-      <c r="P25" s="13"/>
+      <c r="P25" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>57334</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -2407,7 +2486,10 @@
         <f t="shared" si="5"/>
         <v>5265</v>
       </c>
-      <c r="P26" s="13"/>
+      <c r="P26" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>63765</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -2461,7 +2543,10 @@
         <f t="shared" si="5"/>
         <v>4185</v>
       </c>
-      <c r="P27" s="13"/>
+      <c r="P27" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>50685</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -2515,7 +2600,10 @@
         <f t="shared" si="5"/>
         <v>5058</v>
       </c>
-      <c r="P28" s="13"/>
+      <c r="P28" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>61258</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -2569,7 +2657,10 @@
         <f t="shared" si="5"/>
         <v>4941</v>
       </c>
-      <c r="P29" s="13"/>
+      <c r="P29" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>59841</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -2623,7 +2714,10 @@
         <f t="shared" si="5"/>
         <v>4311</v>
       </c>
-      <c r="P30" s="13"/>
+      <c r="P30" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>52211</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -2677,7 +2771,10 @@
         <f t="shared" si="5"/>
         <v>4464</v>
       </c>
-      <c r="P31" s="13"/>
+      <c r="P31" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>54064</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -2731,7 +2828,10 @@
         <f t="shared" si="5"/>
         <v>3204</v>
       </c>
-      <c r="P32" s="13"/>
+      <c r="P32" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>38804</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -2785,7 +2885,10 @@
         <f t="shared" si="5"/>
         <v>5265</v>
       </c>
-      <c r="P33" s="13"/>
+      <c r="P33" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>63765</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -2839,7 +2942,10 @@
         <f t="shared" si="5"/>
         <v>4626</v>
       </c>
-      <c r="P34" s="13"/>
+      <c r="P34" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>56026</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2893,7 +2999,10 @@
         <f t="shared" si="5"/>
         <v>3474</v>
       </c>
-      <c r="P35" s="13"/>
+      <c r="P35" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>42074</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -2947,7 +3056,10 @@
         <f t="shared" si="5"/>
         <v>3645</v>
       </c>
-      <c r="P36" s="13"/>
+      <c r="P36" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>44145</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -3001,7 +3113,10 @@
         <f t="shared" si="5"/>
         <v>8676</v>
       </c>
-      <c r="P37" s="13"/>
+      <c r="P37" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>105076</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -3055,7 +3170,10 @@
         <f t="shared" si="5"/>
         <v>3330</v>
       </c>
-      <c r="P38" s="13"/>
+      <c r="P38" s="13">
+        <f xml:space="preserve"> Annual_Salary+Pension</f>
+        <v>40330</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N38">
